--- a/Compound List.xlsx
+++ b/Compound List.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,17 +446,17 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>density (g/ml)</t>
+          <t>ρ (g/ml)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Vm (ml/mol)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>MW (g/mol)</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Vm (ml/mol)</t>
         </is>
       </c>
     </row>
@@ -475,73 +475,94 @@
         <v>0.7948</v>
       </c>
       <c r="D2" t="n">
+        <v>57.93</v>
+      </c>
+      <c r="E2" t="n">
         <v>46.042</v>
-      </c>
-      <c r="E2" t="n">
-        <v>57.93</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2-Isobutyl-4-methyl-1,3-dioxolane</t>
+          <t>benzene</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CC1COC(O1)CC(C)C</t>
+          <t>c1ccccc1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.9169</v>
+        <v>0.886</v>
       </c>
       <c r="D3" t="n">
-        <v>144.115</v>
+        <v>88.08999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>157.17</v>
+        <v>78.047</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2-Ethyl-4-methyl-1,3-dioxolane</t>
+          <t>2-Isobutyl-4-methyl-1,3-dioxolane</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CCC1OCC(O1)C</t>
+          <t>CC1COC(O1)CC(C)C</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.9428</v>
+        <v>0.9169</v>
       </c>
       <c r="D4" t="n">
-        <v>116.084</v>
+        <v>157.17</v>
       </c>
       <c r="E4" t="n">
-        <v>123.13</v>
+        <v>144.115</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>2-Ethyl-4-methyl-1,3-dioxolane</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CCC1OCC(O1)C</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9428</v>
+      </c>
+      <c r="D5" t="n">
+        <v>123.13</v>
+      </c>
+      <c r="E5" t="n">
+        <v>116.084</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
           <t>3,3-Dimethyloxetane</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>CC1(COC1)C</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>0.8519</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
+        <v>101.04</v>
+      </c>
+      <c r="E6" t="n">
         <v>86.07299999999999</v>
-      </c>
-      <c r="E5" t="n">
-        <v>101.04</v>
       </c>
     </row>
   </sheetData>
